--- a/data/Range_value.xlsx
+++ b/data/Range_value.xlsx
@@ -22,7 +22,7 @@
     <t>max</t>
   </si>
   <si>
-    <t>unite</t>
+    <t>Unite</t>
   </si>
   <si>
     <t>Azote_ureique</t>
